--- a/data/trans_dic/P12_2_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P12_2_R-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1558751187091542</v>
+        <v>0.1551489392747013</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1350077944305633</v>
+        <v>0.1359568259077446</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1513750021955952</v>
+        <v>0.1528350709154723</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1747491954863524</v>
+        <v>0.1752192840077062</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2622539936831472</v>
+        <v>0.2600715891791465</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.215771594371564</v>
+        <v>0.2167466377288242</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1908210644807292</v>
+        <v>0.1934138697453904</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2066331015968615</v>
+        <v>0.2095258327873261</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2191816736363231</v>
+        <v>0.217064997006421</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1853906877073352</v>
+        <v>0.1855499896590292</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1796305816054083</v>
+        <v>0.1787973799944453</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1983963078823412</v>
+        <v>0.1972321872588949</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2154578543794551</v>
+        <v>0.2144533967824368</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1905365254163212</v>
+        <v>0.1922392035525377</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2100083463617821</v>
+        <v>0.2113837994826468</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.235145753412091</v>
+        <v>0.236479656460234</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.329975090105094</v>
+        <v>0.328412086304766</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2830764624401849</v>
+        <v>0.2860021983776466</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2551842661910975</v>
+        <v>0.2591931614949056</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2563495074988077</v>
+        <v>0.2567864460109402</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2620165265965044</v>
+        <v>0.2608013270816293</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2294095535613835</v>
+        <v>0.2301782789957666</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2239890664429015</v>
+        <v>0.2230589385725162</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2396848527025974</v>
+        <v>0.2369980122963193</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.145871135305882</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1359003092921908</v>
+        <v>0.1359003092921907</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.3309611193401791</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1899486675727743</v>
+        <v>0.1865081943216256</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1228716770996869</v>
+        <v>0.1238150007330579</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1243221571308414</v>
+        <v>0.1235413303145246</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1166292659099096</v>
+        <v>0.1142850681911152</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3001753875432071</v>
+        <v>0.3023106849872758</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.201414746570394</v>
+        <v>0.2015820024946225</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2002720230143499</v>
+        <v>0.2002739093020435</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1912532361991228</v>
+        <v>0.191098304642967</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2516323230779405</v>
+        <v>0.2544082561103687</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1681666736396289</v>
+        <v>0.1700997358065955</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1704205283881781</v>
+        <v>0.1683718009364464</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1585815172195708</v>
+        <v>0.1596798087064768</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2420468874552233</v>
+        <v>0.2431652046498777</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1674752762735749</v>
+        <v>0.170536184745147</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1677325210599347</v>
+        <v>0.1669971116655997</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1594048356152168</v>
+        <v>0.1598130084199296</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3614170221588112</v>
+        <v>0.3664523462424684</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2573261480547702</v>
+        <v>0.2555835814986532</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2535747678891006</v>
+        <v>0.2556837582073372</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.233397981290751</v>
+        <v>0.2333758240331519</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2923027991765448</v>
+        <v>0.2942638641218497</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2051891868926508</v>
+        <v>0.2062488727459676</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2054666757098345</v>
+        <v>0.2045353263432128</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1910340720767303</v>
+        <v>0.1905611626268332</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.1513930851380859</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.1558659702941592</v>
+        <v>0.1558659702941593</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2356540359327178</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1424042335623119</v>
+        <v>0.1423839509932155</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1535017673691462</v>
+        <v>0.1549371432021997</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1271631597132168</v>
+        <v>0.1284934880748538</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1303014837473795</v>
+        <v>0.1309014664924753</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2042866844408877</v>
+        <v>0.2066432233203476</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2167932298591349</v>
+        <v>0.2164818445050775</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1722452270621811</v>
+        <v>0.172439289404586</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2145556483697666</v>
+        <v>0.2153151503000851</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1826024588941361</v>
+        <v>0.1824166558323024</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1931160291168313</v>
+        <v>0.1930170000343537</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1562451553112872</v>
+        <v>0.1577550972926924</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1803963247955905</v>
+        <v>0.1806740490613686</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2006119857482657</v>
+        <v>0.2050038742565049</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2126057084133826</v>
+        <v>0.2139391829627022</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1793926184776824</v>
+        <v>0.1818504193998328</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1854173269108078</v>
+        <v>0.1862882762933335</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2700577059261304</v>
+        <v>0.2685636955073948</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2813831847482535</v>
+        <v>0.2805267807008811</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2313818995841847</v>
+        <v>0.2337010895971174</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2700374326502352</v>
+        <v>0.2711906277671031</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2247592769906618</v>
+        <v>0.2229466129283542</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2369613113625435</v>
+        <v>0.2386096650109893</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1962984440862091</v>
+        <v>0.198097706712163</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2193710073781757</v>
+        <v>0.2187839509176763</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.1973209916816992</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.22500853160558</v>
+        <v>0.2250085316055799</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1779835021854129</v>
+        <v>0.1745785857200553</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1786253477045086</v>
+        <v>0.1780931646453069</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1344207784960227</v>
+        <v>0.1331185659184097</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1647510460461779</v>
+        <v>0.1659803785087649</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2776318935427021</v>
+        <v>0.2758628248936353</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2632959964031077</v>
+        <v>0.2634668657788723</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2076834755826625</v>
+        <v>0.2070026742108328</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2307018375152581</v>
+        <v>0.2326766713230691</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2371104840946716</v>
+        <v>0.2376432654548254</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2314320019265681</v>
+        <v>0.2293646745412458</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1797958090765071</v>
+        <v>0.1785459990349252</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2087650371675688</v>
+        <v>0.2083442035458392</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2272503747525789</v>
+        <v>0.2264297712860086</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2339758276191963</v>
+        <v>0.2349118058920882</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1810552004614385</v>
+        <v>0.1814883245399981</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.215674389556058</v>
+        <v>0.215588240518697</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3366301698249073</v>
+        <v>0.3365244821095545</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3188166573401154</v>
+        <v>0.3193575650634882</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2622236432392815</v>
+        <v>0.2639917137876905</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.278172904333983</v>
+        <v>0.2801215925135117</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2761570893777263</v>
+        <v>0.2756819001264109</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2715473306665352</v>
+        <v>0.2703822808114594</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2163137115351235</v>
+        <v>0.215352008032816</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2412551656368573</v>
+        <v>0.2436606009553748</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.2223697143628612</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.2349905607586451</v>
+        <v>0.234990560758645</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.2466719620614174</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1816660693315169</v>
+        <v>0.1821493220698914</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1592730090497267</v>
+        <v>0.1608513915497739</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1442578254292659</v>
+        <v>0.1437903345558722</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1563832505834706</v>
+        <v>0.1563614991262845</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2812170173402015</v>
+        <v>0.2819448323821211</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2395698194734139</v>
+        <v>0.2397868117507382</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2076007313364292</v>
+        <v>0.2074978752173483</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2242599034128766</v>
+        <v>0.2237530310286292</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2362371159783664</v>
+        <v>0.23715179082099</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2047466180348687</v>
+        <v>0.2035319374674874</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1811299271998177</v>
+        <v>0.1808112718923943</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1935521627104187</v>
+        <v>0.1925966023288771</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2098397559571636</v>
+        <v>0.2100476410255603</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1856570826350928</v>
+        <v>0.1887575038860891</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.168820043499492</v>
+        <v>0.1697306312295102</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1822859266791844</v>
+        <v>0.1834503626429549</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3122100771467919</v>
+        <v>0.3134782816460671</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2681857289825605</v>
+        <v>0.2705963123028862</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2364165924293378</v>
+        <v>0.2372660427911459</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2474160319436267</v>
+        <v>0.2472570791389258</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2577220078275377</v>
+        <v>0.2579744135368318</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2248249234695126</v>
+        <v>0.2243289281906523</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1998001906261117</v>
+        <v>0.1999214303225476</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2105847534675592</v>
+        <v>0.2109494181635412</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>108179</v>
+        <v>107675</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>94844</v>
+        <v>95510</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>101974</v>
+        <v>102958</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>120701</v>
+        <v>121026</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>180523</v>
+        <v>179021</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>150198</v>
+        <v>150877</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>128062</v>
+        <v>129803</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>151485</v>
+        <v>153606</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>302989</v>
+        <v>300063</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>259288</v>
+        <v>259511</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>241561</v>
+        <v>240441</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>282481</v>
+        <v>280824</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>149530</v>
+        <v>148833</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>133853</v>
+        <v>135049</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>141473</v>
+        <v>142400</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>162418</v>
+        <v>163339</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>227139</v>
+        <v>226063</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>197049</v>
+        <v>199086</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>171257</v>
+        <v>173948</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>187933</v>
+        <v>188253</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>362202</v>
+        <v>360522</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>320853</v>
+        <v>321928</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>301213</v>
+        <v>299962</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>341269</v>
+        <v>337443</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>182693</v>
+        <v>179384</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>124938</v>
+        <v>125897</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>126988</v>
+        <v>126191</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>122219</v>
+        <v>119763</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>290688</v>
+        <v>292756</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>207683</v>
+        <v>207855</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>208866</v>
+        <v>208868</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>204501</v>
+        <v>204335</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>485699</v>
+        <v>491057</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>344394</v>
+        <v>348353</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>351809</v>
+        <v>347580</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>335748</v>
+        <v>338074</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>232801</v>
+        <v>233876</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>170292</v>
+        <v>173404</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>171329</v>
+        <v>170578</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>167045</v>
+        <v>167473</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>349994</v>
+        <v>354870</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>265334</v>
+        <v>263537</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>264456</v>
+        <v>266656</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>249565</v>
+        <v>249542</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>564201</v>
+        <v>567986</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>420214</v>
+        <v>422384</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>424157</v>
+        <v>422234</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>404457</v>
+        <v>403456</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>96623</v>
+        <v>96609</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>116296</v>
+        <v>117384</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>96466</v>
+        <v>97475</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>104642</v>
+        <v>105123</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>139700</v>
+        <v>141311</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>167414</v>
+        <v>167174</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>134624</v>
+        <v>134776</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>174275</v>
+        <v>174892</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>248768</v>
+        <v>248515</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>295439</v>
+        <v>295287</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>240647</v>
+        <v>242972</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>291400</v>
+        <v>291849</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>136117</v>
+        <v>139097</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>161075</v>
+        <v>162085</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>136087</v>
+        <v>137952</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>148904</v>
+        <v>149603</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>184677</v>
+        <v>183655</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>217292</v>
+        <v>216631</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>180845</v>
+        <v>182657</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>219340</v>
+        <v>220277</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>306201</v>
+        <v>303731</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>362516</v>
+        <v>365037</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>302336</v>
+        <v>305108</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>354357</v>
+        <v>353409</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>167700</v>
+        <v>164492</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>169123</v>
+        <v>168619</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>125891</v>
+        <v>124671</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>163114</v>
+        <v>164331</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>288352</v>
+        <v>286514</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>276961</v>
+        <v>277141</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>216553</v>
+        <v>215844</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>257688</v>
+        <v>259894</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>469677</v>
+        <v>470732</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>462564</v>
+        <v>458432</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>355861</v>
+        <v>353387</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>439876</v>
+        <v>438989</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>214120</v>
+        <v>213347</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>221529</v>
+        <v>222415</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>169566</v>
+        <v>169971</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>213531</v>
+        <v>213446</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>349628</v>
+        <v>349518</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>335364</v>
+        <v>335933</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>273423</v>
+        <v>275267</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>310712</v>
+        <v>312889</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>547021</v>
+        <v>546080</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>542742</v>
+        <v>540414</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>428139</v>
+        <v>426235</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>508334</v>
+        <v>513402</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>595237</v>
+        <v>596820</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>545310</v>
+        <v>550714</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>489069</v>
+        <v>487484</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>552310</v>
+        <v>552233</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>950288</v>
+        <v>952747</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>850796</v>
+        <v>851567</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>734558</v>
+        <v>734194</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>836852</v>
+        <v>834961</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1572333</v>
+        <v>1578421</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1428127</v>
+        <v>1419654</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1254970</v>
+        <v>1252762</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1405845</v>
+        <v>1398904</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>687549</v>
+        <v>688230</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>635643</v>
+        <v>646258</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>572340</v>
+        <v>575428</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>643793</v>
+        <v>647905</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1055019</v>
+        <v>1059305</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>952421</v>
+        <v>960982</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>836518</v>
+        <v>839524</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>923262</v>
+        <v>922669</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1715331</v>
+        <v>1717011</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1568175</v>
+        <v>1564715</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1384328</v>
+        <v>1385168</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1529559</v>
+        <v>1532208</v>
       </c>
     </row>
     <row r="24">
